--- a/user-data/population-rural/population-rural.xlsx
+++ b/user-data/population-rural/population-rural.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>id</t>
   </si>
@@ -1309,9 +1309,6 @@
   </si>
   <si>
     <t>Source: NA</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1693,22 +1690,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11">
@@ -1724,11 +1721,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/population-rural/population-rural.xlsx
+++ b/user-data/population-rural/population-rural.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1320,7 +1320,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1723,6 +1726,11 @@
         <v>437</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/population-rural/population-rural.xlsx
+++ b/user-data/population-rural/population-rural.xlsx
@@ -66,7 +66,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -174,7 +174,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -213,88 +213,88 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -312,7 +312,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -990,7 +990,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1008,7 +1008,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1182,7 +1182,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1206,7 +1206,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1227,18 +1227,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1329,7 +1329,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -5226,7 +5226,7 @@
         <v>2005</v>
       </c>
       <c r="D250" t="n">
-        <v>  9247343</v>
+        <v> 10795463</v>
       </c>
     </row>
     <row r="251">
@@ -5240,7 +5240,7 @@
         <v>2006</v>
       </c>
       <c r="D251" t="n">
-        <v>  9258604</v>
+        <v> 10938657</v>
       </c>
     </row>
     <row r="252">
@@ -5254,7 +5254,7 @@
         <v>2007</v>
       </c>
       <c r="D252" t="n">
-        <v>  9275285</v>
+        <v> 11076190</v>
       </c>
     </row>
     <row r="253">
@@ -5268,7 +5268,7 @@
         <v>2008</v>
       </c>
       <c r="D253" t="n">
-        <v>  9300096</v>
+        <v> 11214031</v>
       </c>
     </row>
     <row r="254">
@@ -5282,7 +5282,7 @@
         <v>2009</v>
       </c>
       <c r="D254" t="n">
-        <v>  9335493</v>
+        <v> 11359793</v>
       </c>
     </row>
     <row r="255">
@@ -5296,7 +5296,7 @@
         <v>2010</v>
       </c>
       <c r="D255" t="n">
-        <v>  9382594</v>
+        <v> 11518664</v>
       </c>
     </row>
     <row r="256">
@@ -5310,7 +5310,7 @@
         <v>2011</v>
       </c>
       <c r="D256" t="n">
-        <v>  9446824</v>
+        <v> 11684251</v>
       </c>
     </row>
     <row r="257">
@@ -5324,7 +5324,7 @@
         <v>2012</v>
       </c>
       <c r="D257" t="n">
-        <v>  9522564</v>
+        <v> 11863177</v>
       </c>
     </row>
     <row r="258">
@@ -5338,7 +5338,7 @@
         <v>2005</v>
       </c>
       <c r="D258" t="n">
-        <v> 10795463</v>
+        <v>  9333497</v>
       </c>
     </row>
     <row r="259">
@@ -5352,7 +5352,7 @@
         <v>2006</v>
       </c>
       <c r="D259" t="n">
-        <v> 10938657</v>
+        <v>  9466925</v>
       </c>
     </row>
     <row r="260">
@@ -5366,7 +5366,7 @@
         <v>2007</v>
       </c>
       <c r="D260" t="n">
-        <v> 11076190</v>
+        <v>  9600516</v>
       </c>
     </row>
     <row r="261">
@@ -5380,7 +5380,7 @@
         <v>2008</v>
       </c>
       <c r="D261" t="n">
-        <v> 11214031</v>
+        <v>  9734103</v>
       </c>
     </row>
     <row r="262">
@@ -5394,7 +5394,7 @@
         <v>2009</v>
       </c>
       <c r="D262" t="n">
-        <v> 11359793</v>
+        <v>  9867458</v>
       </c>
     </row>
     <row r="263">
@@ -5408,7 +5408,7 @@
         <v>2010</v>
       </c>
       <c r="D263" t="n">
-        <v> 11518664</v>
+        <v> 10000331</v>
       </c>
     </row>
     <row r="264">
@@ -5422,7 +5422,7 @@
         <v>2011</v>
       </c>
       <c r="D264" t="n">
-        <v> 11684251</v>
+        <v> 10137028</v>
       </c>
     </row>
     <row r="265">
@@ -5436,7 +5436,7 @@
         <v>2012</v>
       </c>
       <c r="D265" t="n">
-        <v> 11863177</v>
+        <v> 10273039</v>
       </c>
     </row>
     <row r="266">
@@ -5450,7 +5450,7 @@
         <v>2005</v>
       </c>
       <c r="D266" t="n">
-        <v>  9333497</v>
+        <v>  6422979</v>
       </c>
     </row>
     <row r="267">
@@ -5464,7 +5464,7 @@
         <v>2006</v>
       </c>
       <c r="D267" t="n">
-        <v>  9466925</v>
+        <v>  6446224</v>
       </c>
     </row>
     <row r="268">
@@ -5478,7 +5478,7 @@
         <v>2007</v>
       </c>
       <c r="D268" t="n">
-        <v>  9600516</v>
+        <v>  6480632</v>
       </c>
     </row>
     <row r="269">
@@ -5492,7 +5492,7 @@
         <v>2008</v>
       </c>
       <c r="D269" t="n">
-        <v>  9734103</v>
+        <v>  6522422</v>
       </c>
     </row>
     <row r="270">
@@ -5506,7 +5506,7 @@
         <v>2009</v>
       </c>
       <c r="D270" t="n">
-        <v>  9867458</v>
+        <v>  6568467</v>
       </c>
     </row>
     <row r="271">
@@ -5520,7 +5520,7 @@
         <v>2010</v>
       </c>
       <c r="D271" t="n">
-        <v> 10000331</v>
+        <v>  6612666</v>
       </c>
     </row>
     <row r="272">
@@ -5534,7 +5534,7 @@
         <v>2011</v>
       </c>
       <c r="D272" t="n">
-        <v> 10137028</v>
+        <v>  6641275</v>
       </c>
     </row>
     <row r="273">
@@ -5548,7 +5548,7 @@
         <v>2012</v>
       </c>
       <c r="D273" t="n">
-        <v> 10273039</v>
+        <v>  6683393</v>
       </c>
     </row>
     <row r="274">
@@ -5562,7 +5562,7 @@
         <v>2005</v>
       </c>
       <c r="D274" t="n">
-        <v>  6422979</v>
+        <v>   202522</v>
       </c>
     </row>
     <row r="275">
@@ -5576,7 +5576,7 @@
         <v>2006</v>
       </c>
       <c r="D275" t="n">
-        <v>  6446224</v>
+        <v>   199919</v>
       </c>
     </row>
     <row r="276">
@@ -5590,7 +5590,7 @@
         <v>2007</v>
       </c>
       <c r="D276" t="n">
-        <v>  6480632</v>
+        <v>   196646</v>
       </c>
     </row>
     <row r="277">
@@ -5604,7 +5604,7 @@
         <v>2008</v>
       </c>
       <c r="D277" t="n">
-        <v>  6522422</v>
+        <v>   193010</v>
       </c>
     </row>
     <row r="278">
@@ -5618,7 +5618,7 @@
         <v>2009</v>
       </c>
       <c r="D278" t="n">
-        <v>  6568467</v>
+        <v>   189408</v>
       </c>
     </row>
     <row r="279">
@@ -5632,7 +5632,7 @@
         <v>2010</v>
       </c>
       <c r="D279" t="n">
-        <v>  6612666</v>
+        <v>   186103</v>
       </c>
     </row>
     <row r="280">
@@ -5646,7 +5646,7 @@
         <v>2011</v>
       </c>
       <c r="D280" t="n">
-        <v>  6641275</v>
+        <v>   183573</v>
       </c>
     </row>
     <row r="281">
@@ -5660,7 +5660,7 @@
         <v>2012</v>
       </c>
       <c r="D281" t="n">
-        <v>  6683393</v>
+        <v>   181326</v>
       </c>
     </row>
     <row r="282">
@@ -5674,7 +5674,7 @@
         <v>2005</v>
       </c>
       <c r="D282" t="n">
-        <v>   202522</v>
+        <v>  2453102</v>
       </c>
     </row>
     <row r="283">
@@ -5688,7 +5688,7 @@
         <v>2006</v>
       </c>
       <c r="D283" t="n">
-        <v>   199919</v>
+        <v>  2490896</v>
       </c>
     </row>
     <row r="284">
@@ -5702,7 +5702,7 @@
         <v>2007</v>
       </c>
       <c r="D284" t="n">
-        <v>   196646</v>
+        <v>  2530678</v>
       </c>
     </row>
     <row r="285">
@@ -5716,7 +5716,7 @@
         <v>2008</v>
       </c>
       <c r="D285" t="n">
-        <v>   193010</v>
+        <v>  2572325</v>
       </c>
     </row>
     <row r="286">
@@ -5730,7 +5730,7 @@
         <v>2009</v>
       </c>
       <c r="D286" t="n">
-        <v>   189408</v>
+        <v>  2615525</v>
       </c>
     </row>
     <row r="287">
@@ -5744,7 +5744,7 @@
         <v>2010</v>
       </c>
       <c r="D287" t="n">
-        <v>   186103</v>
+        <v>  2660020</v>
       </c>
     </row>
     <row r="288">
@@ -5758,7 +5758,7 @@
         <v>2011</v>
       </c>
       <c r="D288" t="n">
-        <v>   183573</v>
+        <v>  2701630</v>
       </c>
     </row>
     <row r="289">
@@ -5772,7 +5772,7 @@
         <v>2012</v>
       </c>
       <c r="D289" t="n">
-        <v>   181326</v>
+        <v>  2744440</v>
       </c>
     </row>
     <row r="290">
@@ -5785,9 +5785,7 @@
       <c r="C290" t="n">
         <v>2005</v>
       </c>
-      <c r="D290" t="n">
-        <v>  2453102</v>
-      </c>
+      <c r="D290"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -5799,9 +5797,7 @@
       <c r="C291" t="n">
         <v>2006</v>
       </c>
-      <c r="D291" t="n">
-        <v>  2490896</v>
-      </c>
+      <c r="D291"/>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -5813,9 +5809,7 @@
       <c r="C292" t="n">
         <v>2007</v>
       </c>
-      <c r="D292" t="n">
-        <v>  2530678</v>
-      </c>
+      <c r="D292"/>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -5827,9 +5821,7 @@
       <c r="C293" t="n">
         <v>2008</v>
       </c>
-      <c r="D293" t="n">
-        <v>  2572325</v>
-      </c>
+      <c r="D293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -5841,9 +5833,7 @@
       <c r="C294" t="n">
         <v>2009</v>
       </c>
-      <c r="D294" t="n">
-        <v>  2615525</v>
-      </c>
+      <c r="D294"/>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -5855,9 +5845,7 @@
       <c r="C295" t="n">
         <v>2010</v>
       </c>
-      <c r="D295" t="n">
-        <v>  2660020</v>
-      </c>
+      <c r="D295"/>
     </row>
     <row r="296">
       <c r="A296" t="s">
@@ -5869,9 +5857,7 @@
       <c r="C296" t="n">
         <v>2011</v>
       </c>
-      <c r="D296" t="n">
-        <v>  2701630</v>
-      </c>
+      <c r="D296"/>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -5883,9 +5869,7 @@
       <c r="C297" t="n">
         <v>2012</v>
       </c>
-      <c r="D297" t="n">
-        <v>  2744440</v>
-      </c>
+      <c r="D297"/>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -5897,7 +5881,9 @@
       <c r="C298" t="n">
         <v>2005</v>
       </c>
-      <c r="D298"/>
+      <c r="D298" t="n">
+        <v>  7848596</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -5909,7 +5895,9 @@
       <c r="C299" t="n">
         <v>2006</v>
       </c>
-      <c r="D299"/>
+      <c r="D299" t="n">
+        <v>  8114632</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -5921,7 +5909,9 @@
       <c r="C300" t="n">
         <v>2007</v>
       </c>
-      <c r="D300"/>
+      <c r="D300" t="n">
+        <v>  8376704</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -5933,7 +5923,9 @@
       <c r="C301" t="n">
         <v>2008</v>
       </c>
-      <c r="D301"/>
+      <c r="D301" t="n">
+        <v>  8637622</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
@@ -5945,7 +5937,9 @@
       <c r="C302" t="n">
         <v>2009</v>
       </c>
-      <c r="D302"/>
+      <c r="D302" t="n">
+        <v>  8901860</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
@@ -5957,7 +5951,9 @@
       <c r="C303" t="n">
         <v>2010</v>
       </c>
-      <c r="D303"/>
+      <c r="D303" t="n">
+        <v>  9172800</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -5969,7 +5965,9 @@
       <c r="C304" t="n">
         <v>2011</v>
       </c>
-      <c r="D304"/>
+      <c r="D304" t="n">
+        <v>  9443037</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -5981,7 +5979,9 @@
       <c r="C305" t="n">
         <v>2012</v>
       </c>
-      <c r="D305"/>
+      <c r="D305" t="n">
+        <v>  9719560</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
@@ -5994,7 +5994,7 @@
         <v>2005</v>
       </c>
       <c r="D306" t="n">
-        <v>  7848596</v>
+        <v>  2022123</v>
       </c>
     </row>
     <row r="307">
@@ -6008,7 +6008,7 @@
         <v>2006</v>
       </c>
       <c r="D307" t="n">
-        <v>  8114632</v>
+        <v>  1999227</v>
       </c>
     </row>
     <row r="308">
@@ -6022,7 +6022,7 @@
         <v>2007</v>
       </c>
       <c r="D308" t="n">
-        <v>  8376704</v>
+        <v>  1975164</v>
       </c>
     </row>
     <row r="309">
@@ -6036,7 +6036,7 @@
         <v>2008</v>
       </c>
       <c r="D309" t="n">
-        <v>  8637622</v>
+        <v>  1949994</v>
       </c>
     </row>
     <row r="310">
@@ -6050,7 +6050,7 @@
         <v>2009</v>
       </c>
       <c r="D310" t="n">
-        <v>  8901860</v>
+        <v>  1923770</v>
       </c>
     </row>
     <row r="311">
@@ -6064,7 +6064,7 @@
         <v>2010</v>
       </c>
       <c r="D311" t="n">
-        <v>  9172800</v>
+        <v>  1896531</v>
       </c>
     </row>
     <row r="312">
@@ -6078,7 +6078,7 @@
         <v>2011</v>
       </c>
       <c r="D312" t="n">
-        <v>  9443037</v>
+        <v>  1878728</v>
       </c>
     </row>
     <row r="313">
@@ -6092,7 +6092,7 @@
         <v>2012</v>
       </c>
       <c r="D313" t="n">
-        <v>  9719560</v>
+        <v>  1860142</v>
       </c>
     </row>
     <row r="314">
@@ -6106,7 +6106,7 @@
         <v>2005</v>
       </c>
       <c r="D314" t="n">
-        <v>  2022123</v>
+        <v>749352182</v>
       </c>
     </row>
     <row r="315">
@@ -6120,7 +6120,7 @@
         <v>2006</v>
       </c>
       <c r="D315" t="n">
-        <v>  1999227</v>
+        <v>735969919</v>
       </c>
     </row>
     <row r="316">
@@ -6134,7 +6134,7 @@
         <v>2007</v>
       </c>
       <c r="D316" t="n">
-        <v>  1975164</v>
+        <v>722153536</v>
       </c>
     </row>
     <row r="317">
@@ -6148,7 +6148,7 @@
         <v>2008</v>
       </c>
       <c r="D317" t="n">
-        <v>  1949994</v>
+        <v>708102278</v>
       </c>
     </row>
     <row r="318">
@@ -6162,7 +6162,7 @@
         <v>2009</v>
       </c>
       <c r="D318" t="n">
-        <v>  1923770</v>
+        <v>693783486</v>
       </c>
     </row>
     <row r="319">
@@ -6176,7 +6176,7 @@
         <v>2010</v>
       </c>
       <c r="D319" t="n">
-        <v>  1896531</v>
+        <v>679206337</v>
       </c>
     </row>
     <row r="320">
@@ -6190,7 +6190,7 @@
         <v>2011</v>
       </c>
       <c r="D320" t="n">
-        <v>  1878728</v>
+        <v>665333597</v>
       </c>
     </row>
     <row r="321">
@@ -6204,7 +6204,7 @@
         <v>2012</v>
       </c>
       <c r="D321" t="n">
-        <v>  1860142</v>
+        <v>651364560</v>
       </c>
     </row>
     <row r="322">
@@ -6218,7 +6218,7 @@
         <v>2005</v>
       </c>
       <c r="D322" t="n">
-        <v>749352182</v>
+        <v> 11408788</v>
       </c>
     </row>
     <row r="323">
@@ -6232,7 +6232,7 @@
         <v>2006</v>
       </c>
       <c r="D323" t="n">
-        <v>735969919</v>
+        <v> 11456276</v>
       </c>
     </row>
     <row r="324">
@@ -6246,7 +6246,7 @@
         <v>2007</v>
       </c>
       <c r="D324" t="n">
-        <v>722153536</v>
+        <v> 11499897</v>
       </c>
     </row>
     <row r="325">
@@ -6260,7 +6260,7 @@
         <v>2008</v>
       </c>
       <c r="D325" t="n">
-        <v>708102278</v>
+        <v> 11539130</v>
       </c>
     </row>
     <row r="326">
@@ -6274,7 +6274,7 @@
         <v>2009</v>
       </c>
       <c r="D326" t="n">
-        <v>693783486</v>
+        <v> 11573300</v>
       </c>
     </row>
     <row r="327">
@@ -6288,7 +6288,7 @@
         <v>2010</v>
       </c>
       <c r="D327" t="n">
-        <v>679206337</v>
+        <v> 11601911</v>
       </c>
     </row>
     <row r="328">
@@ -6302,7 +6302,7 @@
         <v>2011</v>
       </c>
       <c r="D328" t="n">
-        <v>665333597</v>
+        <v> 11631851</v>
       </c>
     </row>
     <row r="329">
@@ -6316,7 +6316,7 @@
         <v>2012</v>
       </c>
       <c r="D329" t="n">
-        <v>651364560</v>
+        <v> 11656291</v>
       </c>
     </row>
     <row r="330">
@@ -6330,7 +6330,7 @@
         <v>2005</v>
       </c>
       <c r="D330" t="n">
-        <v> 11408788</v>
+        <v>   433279</v>
       </c>
     </row>
     <row r="331">
@@ -6344,7 +6344,7 @@
         <v>2006</v>
       </c>
       <c r="D331" t="n">
-        <v> 11456276</v>
+        <v>   444552</v>
       </c>
     </row>
     <row r="332">
@@ -6358,7 +6358,7 @@
         <v>2007</v>
       </c>
       <c r="D332" t="n">
-        <v> 11499897</v>
+        <v>   456120</v>
       </c>
     </row>
     <row r="333">
@@ -6372,7 +6372,7 @@
         <v>2008</v>
       </c>
       <c r="D333" t="n">
-        <v> 11539130</v>
+        <v>   467931</v>
       </c>
     </row>
     <row r="334">
@@ -6386,7 +6386,7 @@
         <v>2009</v>
       </c>
       <c r="D334" t="n">
-        <v> 11573300</v>
+        <v>   479916</v>
       </c>
     </row>
     <row r="335">
@@ -6400,7 +6400,7 @@
         <v>2010</v>
       </c>
       <c r="D335" t="n">
-        <v> 11601911</v>
+        <v>   492023</v>
       </c>
     </row>
     <row r="336">
@@ -6414,7 +6414,7 @@
         <v>2011</v>
       </c>
       <c r="D336" t="n">
-        <v> 11631851</v>
+        <v>   503675</v>
       </c>
     </row>
     <row r="337">
@@ -6428,7 +6428,7 @@
         <v>2012</v>
       </c>
       <c r="D337" t="n">
-        <v> 11656291</v>
+        <v>   515402</v>
       </c>
     </row>
     <row r="338">
@@ -6442,7 +6442,7 @@
         <v>2005</v>
       </c>
       <c r="D338" t="n">
-        <v>   433279</v>
+        <v>  1382143</v>
       </c>
     </row>
     <row r="339">
@@ -6456,7 +6456,7 @@
         <v>2006</v>
       </c>
       <c r="D339" t="n">
-        <v>   444552</v>
+        <v>  1406332</v>
       </c>
     </row>
     <row r="340">
@@ -6470,7 +6470,7 @@
         <v>2007</v>
       </c>
       <c r="D340" t="n">
-        <v>   456120</v>
+        <v>  1432801</v>
       </c>
     </row>
     <row r="341">
@@ -6484,7 +6484,7 @@
         <v>2008</v>
       </c>
       <c r="D341" t="n">
-        <v>   467931</v>
+        <v>  1460307</v>
       </c>
     </row>
     <row r="342">
@@ -6498,7 +6498,7 @@
         <v>2009</v>
       </c>
       <c r="D342" t="n">
-        <v>   479916</v>
+        <v>  1487153</v>
       </c>
     </row>
     <row r="343">
@@ -6512,7 +6512,7 @@
         <v>2010</v>
       </c>
       <c r="D343" t="n">
-        <v>   492023</v>
+        <v>  1512165</v>
       </c>
     </row>
     <row r="344">
@@ -6526,7 +6526,7 @@
         <v>2011</v>
       </c>
       <c r="D344" t="n">
-        <v>   503675</v>
+        <v>  1535943</v>
       </c>
     </row>
     <row r="345">
@@ -6540,7 +6540,7 @@
         <v>2012</v>
       </c>
       <c r="D345" t="n">
-        <v>   515402</v>
+        <v>  1558051</v>
       </c>
     </row>
     <row r="346">
@@ -6554,7 +6554,7 @@
         <v>2005</v>
       </c>
       <c r="D346" t="n">
-        <v>  1382143</v>
+        <v>  1654351</v>
       </c>
     </row>
     <row r="347">
@@ -6568,7 +6568,7 @@
         <v>2006</v>
       </c>
       <c r="D347" t="n">
-        <v>  1406332</v>
+        <v>  1660275</v>
       </c>
     </row>
     <row r="348">
@@ -6582,7 +6582,7 @@
         <v>2007</v>
       </c>
       <c r="D348" t="n">
-        <v>  1432801</v>
+        <v>  1664873</v>
       </c>
     </row>
     <row r="349">
@@ -6596,7 +6596,7 @@
         <v>2008</v>
       </c>
       <c r="D349" t="n">
-        <v>  1460307</v>
+        <v>  1668310</v>
       </c>
     </row>
     <row r="350">
@@ -6610,7 +6610,7 @@
         <v>2009</v>
       </c>
       <c r="D350" t="n">
-        <v>  1487153</v>
+        <v>  1670777</v>
       </c>
     </row>
     <row r="351">
@@ -6624,7 +6624,7 @@
         <v>2010</v>
       </c>
       <c r="D351" t="n">
-        <v>  1512165</v>
+        <v>  1672401</v>
       </c>
     </row>
     <row r="352">
@@ -6638,7 +6638,7 @@
         <v>2011</v>
       </c>
       <c r="D352" t="n">
-        <v>  1535943</v>
+        <v>  1675064</v>
       </c>
     </row>
     <row r="353">
@@ -6652,7 +6652,7 @@
         <v>2012</v>
       </c>
       <c r="D353" t="n">
-        <v>  1558051</v>
+        <v>  1676971</v>
       </c>
     </row>
     <row r="354">
@@ -6666,7 +6666,7 @@
         <v>2005</v>
       </c>
       <c r="D354" t="n">
-        <v>  1654351</v>
+        <v>  9247343</v>
       </c>
     </row>
     <row r="355">
@@ -6680,7 +6680,7 @@
         <v>2006</v>
       </c>
       <c r="D355" t="n">
-        <v>  1660275</v>
+        <v>  9258604</v>
       </c>
     </row>
     <row r="356">
@@ -6694,7 +6694,7 @@
         <v>2007</v>
       </c>
       <c r="D356" t="n">
-        <v>  1664873</v>
+        <v>  9275285</v>
       </c>
     </row>
     <row r="357">
@@ -6708,7 +6708,7 @@
         <v>2008</v>
       </c>
       <c r="D357" t="n">
-        <v>  1668310</v>
+        <v>  9300096</v>
       </c>
     </row>
     <row r="358">
@@ -6722,7 +6722,7 @@
         <v>2009</v>
       </c>
       <c r="D358" t="n">
-        <v>  1670777</v>
+        <v>  9335493</v>
       </c>
     </row>
     <row r="359">
@@ -6736,7 +6736,7 @@
         <v>2010</v>
       </c>
       <c r="D359" t="n">
-        <v>  1672401</v>
+        <v>  9382594</v>
       </c>
     </row>
     <row r="360">
@@ -6750,7 +6750,7 @@
         <v>2011</v>
       </c>
       <c r="D360" t="n">
-        <v>  1675064</v>
+        <v>  9446824</v>
       </c>
     </row>
     <row r="361">
@@ -6764,7 +6764,7 @@
         <v>2012</v>
       </c>
       <c r="D361" t="n">
-        <v>  1676971</v>
+        <v>  9522564</v>
       </c>
     </row>
     <row r="362">
@@ -24010,7 +24010,7 @@
         <v>2005</v>
       </c>
       <c r="D1602" t="n">
-        <v> 15172569</v>
+        <v> 12677252</v>
       </c>
     </row>
     <row r="1603">
@@ -24024,7 +24024,7 @@
         <v>2006</v>
       </c>
       <c r="D1603" t="n">
-        <v> 14986584</v>
+        <v> 12708755</v>
       </c>
     </row>
     <row r="1604">
@@ -24038,7 +24038,7 @@
         <v>2007</v>
       </c>
       <c r="D1604" t="n">
-        <v> 14814158</v>
+        <v> 12745218</v>
       </c>
     </row>
     <row r="1605">
@@ -24052,7 +24052,7 @@
         <v>2008</v>
       </c>
       <c r="D1605" t="n">
-        <v> 14651360</v>
+        <v> 12782493</v>
       </c>
     </row>
     <row r="1606">
@@ -24066,7 +24066,7 @@
         <v>2009</v>
       </c>
       <c r="D1606" t="n">
-        <v> 14504026</v>
+        <v> 12816322</v>
       </c>
     </row>
     <row r="1607">
@@ -24080,7 +24080,7 @@
         <v>2010</v>
       </c>
       <c r="D1607" t="n">
-        <v> 14364410</v>
+        <v> 12858293</v>
       </c>
     </row>
     <row r="1608">
@@ -24094,7 +24094,7 @@
         <v>2011</v>
       </c>
       <c r="D1608" t="n">
-        <v> 14221910</v>
+        <v> 12882502</v>
       </c>
     </row>
     <row r="1609">
@@ -24108,7 +24108,7 @@
         <v>2012</v>
       </c>
       <c r="D1609" t="n">
-        <v> 14096081</v>
+        <v> 12873181</v>
       </c>
     </row>
     <row r="1610">
@@ -24122,7 +24122,7 @@
         <v>2005</v>
       </c>
       <c r="D1610" t="n">
-        <v> 12677252</v>
+        <v> 15172569</v>
       </c>
     </row>
     <row r="1611">
@@ -24136,7 +24136,7 @@
         <v>2006</v>
       </c>
       <c r="D1611" t="n">
-        <v> 12708755</v>
+        <v> 14986584</v>
       </c>
     </row>
     <row r="1612">
@@ -24150,7 +24150,7 @@
         <v>2007</v>
       </c>
       <c r="D1612" t="n">
-        <v> 12745218</v>
+        <v> 14814158</v>
       </c>
     </row>
     <row r="1613">
@@ -24164,7 +24164,7 @@
         <v>2008</v>
       </c>
       <c r="D1613" t="n">
-        <v> 12782493</v>
+        <v> 14651360</v>
       </c>
     </row>
     <row r="1614">
@@ -24178,7 +24178,7 @@
         <v>2009</v>
       </c>
       <c r="D1614" t="n">
-        <v> 12816322</v>
+        <v> 14504026</v>
       </c>
     </row>
     <row r="1615">
@@ -24192,7 +24192,7 @@
         <v>2010</v>
       </c>
       <c r="D1615" t="n">
-        <v> 12858293</v>
+        <v> 14364410</v>
       </c>
     </row>
     <row r="1616">
@@ -24206,7 +24206,7 @@
         <v>2011</v>
       </c>
       <c r="D1616" t="n">
-        <v> 12882502</v>
+        <v> 14221910</v>
       </c>
     </row>
     <row r="1617">
@@ -24220,7 +24220,7 @@
         <v>2012</v>
       </c>
       <c r="D1617" t="n">
-        <v> 12873181</v>
+        <v> 14096081</v>
       </c>
     </row>
     <row r="1618">
